--- a/data/GASY_class_self_1.xlsx
+++ b/data/GASY_class_self_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34363E82-4517-3446-BC3B-561CFDC4F540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46493BA7-EA16-1E40-9459-4E1A7D8B212C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39500" yWindow="9160" windowWidth="26040" windowHeight="13800" xr2:uid="{BCB8E06C-46BF-A54F-84A7-1F15C3694C88}"/>
+    <workbookView xWindow="980" yWindow="2120" windowWidth="26040" windowHeight="13800" xr2:uid="{BCB8E06C-46BF-A54F-84A7-1F15C3694C88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>Question</t>
   </si>
@@ -96,13 +96,16 @@
   </si>
   <si>
     <t>A little worse</t>
+  </si>
+  <si>
+    <t>Not worse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -450,10 +453,10 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
@@ -461,7 +464,7 @@
     <col min="4" max="4" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,116 +478,158 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/GASY_class_self_1.xlsx
+++ b/data/GASY_class_self_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46493BA7-EA16-1E40-9459-4E1A7D8B212C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A7CA98-4FCB-CB42-9C9E-C4B6BD18FB40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="2120" windowWidth="26040" windowHeight="13800" xr2:uid="{BCB8E06C-46BF-A54F-84A7-1F15C3694C88}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
   <si>
     <t>Question</t>
   </si>
@@ -453,7 +453,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,7 +461,7 @@
     <col min="1" max="1" width="53.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -488,6 +488,9 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -499,6 +502,9 @@
       <c r="C3" t="s">
         <v>19</v>
       </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -510,6 +516,9 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -521,6 +530,9 @@
       <c r="C5" t="s">
         <v>20</v>
       </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -532,6 +544,9 @@
       <c r="C6" t="s">
         <v>19</v>
       </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -543,6 +558,9 @@
       <c r="C7" t="s">
         <v>18</v>
       </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -554,6 +572,9 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -565,6 +586,9 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -576,6 +600,9 @@
       <c r="C10" t="s">
         <v>19</v>
       </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -587,6 +614,9 @@
       <c r="C11" t="s">
         <v>21</v>
       </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -598,6 +628,9 @@
       <c r="C12" t="s">
         <v>21</v>
       </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -609,6 +642,9 @@
       <c r="C13" t="s">
         <v>18</v>
       </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -620,6 +656,9 @@
       <c r="C14" t="s">
         <v>20</v>
       </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -629,6 +668,9 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
     </row>
